--- a/posesiones/1381253.xlsx
+++ b/posesiones/1381253.xlsx
@@ -1811,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>23</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>38</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23">
         <v>22</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R25">
         <v>17</v>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26">
         <v>25</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R33">
         <v>11</v>
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R34">
         <v>15</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R36">
         <v>10</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R38">
         <v>27</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R43">
         <v>7</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R46">
         <v>25</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R48">
         <v>14</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4507,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R58">
         <v>18</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R63">
         <v>25</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R68">
         <v>32</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R79">
         <v>4</v>
@@ -5574,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R80">
         <v>14</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5674,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R82">
         <v>7</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R84">
         <v>8</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6115,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R91">
         <v>16</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6359,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R96">
         <v>21</v>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R97">
         <v>16</v>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6515,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R99">
         <v>21</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6615,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R101">
         <v>22</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6718,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R103">
         <v>16</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6818,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R105">
         <v>23</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R114">
         <v>29</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7441,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R118">
         <v>22</v>
@@ -7494,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R119">
         <v>22</v>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7923,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R128">
         <v>7</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R130">
         <v>19</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8126,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R132">
         <v>11</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R134">
         <v>2</v>
@@ -8273,10 +8273,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8370,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8505,10 +8505,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R141">
         <v>16</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R143">
         <v>11</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8761,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R145">
         <v>6</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R147">
         <v>24</v>
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R148">
         <v>22</v>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R155">
         <v>25</v>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9490,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R165">
         <v>8</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R167">
         <v>27</v>
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R168">
         <v>23</v>
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -9975,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R170">
         <v>24</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R174">
         <v>22</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R176">
         <v>7</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10422,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R179">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R180">
         <v>14</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10622,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10672,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R184">
         <v>36</v>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R194">
         <v>14</v>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R196">
         <v>6</v>
@@ -11301,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R197">
         <v>18</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11401,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R199">
         <v>17</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R201">
         <v>14</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R208">
         <v>7</v>
@@ -11895,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R210">
         <v>28</v>
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12236,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R216">
         <v>27</v>
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12377,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R221">
         <v>17</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12624,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R225">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R226">
         <v>24</v>
@@ -12777,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12824,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R230">
         <v>0</v>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13024,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R232">
         <v>12</v>
@@ -13077,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R233">
         <v>17</v>
@@ -13130,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R234">
         <v>19</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13233,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R236">
         <v>11</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R238">
         <v>6</v>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13433,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R248">
         <v>29</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13915,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R250">
         <v>13</v>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R256">
         <v>26</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14303,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R258">
         <v>7</v>
@@ -14347,10 +14347,10 @@
         <v>1</v>
       </c>
       <c r="P259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q259">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14632,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14767,10 +14767,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q268">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14820,7 +14820,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R269">
         <v>20</v>
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R270">
         <v>22</v>
@@ -14926,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -14976,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R272">
         <v>18</v>
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R273">
         <v>16</v>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15126,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15176,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15226,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R277">
         <v>46</v>
@@ -15279,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R278">
         <v>22</v>
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15379,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R280">
         <v>10</v>
@@ -15429,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15667,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R286">
         <v>19</v>
@@ -15720,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R287">
         <v>8</v>
@@ -15770,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15820,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R289">
         <v>8</v>
@@ -15873,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R290">
         <v>26</v>
@@ -15926,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15976,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R292">
         <v>5</v>
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R293">
         <v>16</v>
@@ -16082,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R295">
         <v>9</v>
@@ -16185,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R296">
         <v>12</v>
@@ -16238,7 +16238,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R297">
         <v>23</v>
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16341,7 +16341,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R299">
         <v>20</v>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16535,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16582,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16632,7 +16632,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R305">
         <v>10</v>
@@ -16682,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16729,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16779,7 +16779,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R308">
         <v>21</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R309">
         <v>22</v>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17120,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R315">
         <v>24</v>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R317">
         <v>16</v>
@@ -17273,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17323,7 +17323,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R319">
         <v>18</v>
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17417,7 +17417,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17464,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17605,7 +17605,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17655,7 +17655,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R326">
         <v>16</v>
@@ -17708,7 +17708,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17758,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R328">
         <v>12</v>
@@ -17811,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17861,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R330">
         <v>16</v>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17964,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R332">
         <v>12</v>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18161,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18211,7 +18211,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R337">
         <v>26</v>
@@ -18261,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18308,7 +18308,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18402,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18452,7 +18452,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R342">
         <v>16</v>
@@ -18502,7 +18502,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18552,7 +18552,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18602,7 +18602,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R345">
         <v>25</v>
@@ -18652,7 +18652,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18702,7 +18702,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R347">
         <v>20</v>
@@ -18752,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18846,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18943,7 +18943,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R352">
         <v>8</v>
@@ -18996,7 +18996,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19046,7 +19046,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R354">
         <v>18</v>
@@ -19096,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19143,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19190,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19237,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19284,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19331,7 +19331,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19525,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R364">
         <v>20</v>
@@ -19569,10 +19569,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19619,7 +19619,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19713,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19801,10 +19801,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19854,7 +19854,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R371">
         <v>20</v>
@@ -19904,7 +19904,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19951,7 +19951,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20001,7 +20001,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R374">
         <v>0</v>
@@ -20054,7 +20054,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R375">
         <v>20</v>
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20154,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20201,7 +20201,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20248,7 +20248,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20342,7 +20342,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20439,7 +20439,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R383">
         <v>34</v>
@@ -20486,7 +20486,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20627,7 +20627,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20674,7 +20674,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20724,7 +20724,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R389">
         <v>9</v>
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20821,7 +20821,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20918,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20968,7 +20968,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21018,7 +21018,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R395">
         <v>31</v>
@@ -21071,7 +21071,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R396">
         <v>11</v>
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21171,7 +21171,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21221,7 +21221,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R399">
         <v>8</v>
@@ -21274,7 +21274,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21321,7 +21321,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21368,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21415,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21465,7 +21465,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R404">
         <v>9</v>
@@ -21515,7 +21515,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21562,7 +21562,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21612,7 +21612,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R407">
         <v>10</v>
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21709,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21759,7 +21759,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R410">
         <v>25</v>
@@ -21812,7 +21812,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21959,7 +21959,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R414">
         <v>24</v>
@@ -22009,7 +22009,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22056,7 +22056,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22103,7 +22103,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22153,7 +22153,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R418">
         <v>16</v>
@@ -22203,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22250,7 +22250,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22297,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22344,7 +22344,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22391,7 +22391,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22438,7 +22438,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22485,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22535,7 +22535,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R426">
         <v>16</v>
@@ -22585,7 +22585,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22729,7 +22729,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R430">
         <v>13</v>
@@ -22782,7 +22782,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R431">
         <v>15</v>
@@ -22835,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22885,7 +22885,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R433">
         <v>4</v>
@@ -22938,7 +22938,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R434">
         <v>6</v>
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23088,7 +23088,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R437">
         <v>8</v>
@@ -23141,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23188,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23288,7 +23288,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R441">
         <v>20</v>
@@ -23338,7 +23338,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23432,7 +23432,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23482,7 +23482,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R445">
         <v>17</v>
@@ -23535,7 +23535,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23682,7 +23682,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R449">
         <v>25</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23782,7 +23782,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R451">
         <v>26</v>
@@ -23835,7 +23835,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23882,7 +23882,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -23976,7 +23976,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24073,7 +24073,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R457">
         <v>9</v>
@@ -24120,7 +24120,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24261,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24311,7 +24311,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R462">
         <v>13</v>
@@ -24364,7 +24364,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R463">
         <v>13</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24464,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24514,7 +24514,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R466">
         <v>13</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24617,7 +24617,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R468">
         <v>14</v>
@@ -24670,7 +24670,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R469">
         <v>24</v>
@@ -24720,7 +24720,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24820,7 +24820,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R472">
         <v>1</v>
@@ -24870,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24967,7 +24967,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R475">
         <v>0</v>
@@ -25017,7 +25017,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25067,7 +25067,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25164,7 +25164,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25214,7 +25214,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R480">
         <v>38</v>
@@ -25267,7 +25267,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25317,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R482">
         <v>8</v>
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25461,7 +25461,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R485">
         <v>1</v>
@@ -25508,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25558,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R487">
         <v>10</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25652,7 +25652,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25746,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25793,7 +25793,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25843,7 +25843,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R493">
         <v>5</v>
@@ -25896,7 +25896,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R494">
         <v>6</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -25996,7 +25996,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26090,7 +26090,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26137,7 +26137,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26184,7 +26184,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26234,7 +26234,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R501">
         <v>14</v>
@@ -26287,7 +26287,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R502">
         <v>8</v>
@@ -26337,7 +26337,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26431,7 +26431,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R506">
         <v>2</v>
@@ -26531,7 +26531,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26578,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26625,7 +26625,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26675,7 +26675,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R510">
         <v>5</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26772,7 +26772,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26819,7 +26819,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26869,7 +26869,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R514">
         <v>4</v>
@@ -26922,7 +26922,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R515">
         <v>6</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27013,10 +27013,10 @@
         <v>1</v>
       </c>
       <c r="P517" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q517">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27057,7 +27057,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
